--- a/working/AI服务器1.xlsx
+++ b/working/AI服务器1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenh\Documents\GitHub\zyxProFiles\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8205C6C0-0791-4497-A5DC-411077272124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89878A6-8986-4694-BB4C-CF4EA79D3A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{179F75A0-EC77-48D4-BF8A-5EEFD122BAF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{179F75A0-EC77-48D4-BF8A-5EEFD122BAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,22 +53,281 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>戴尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGX-2（NF5288M5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+支持2颗第二代智能英特尔® 至强® 可扩展处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+支持8片NVIDIA® Tesla® NVLink &amp; PCIe V100, V100s, T4
+支持8片NVIDIA® Quadro RTX 8000, RTX 6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6通道，最多2TB 2667MHz DDR4
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+2颗全新一代英特尔®至强®可扩展处理器，TDP 205W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存类型：DDR4 RDIMM/LRDIMM 2666MHz
+内存插槽数：24个
+内存总容量：最大支持3072GB（单条128G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGX-5 (NF5888M5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多达两个第二代英特尔®至强®可扩展处理器，每个处理器多达 28 个核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片组类型：
+Intel® C620 series chipset (Lewisburg-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+2颗2nd Generation Intel®Xeon® Scalable系列处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持4片 NVIDIA V100，P100，P40，M40，K80，M60，M10等GPU卡；
+支持2片Xilinx Alveo U200 FPGA卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+支持24条2933MT/s DDR4 ECC内存，12个内存通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+前置：最大支持24个前置2.5寸硬盘，或12个3.5寸硬盘。支持24个NVMe SSD全闪配置。
+内置：最大支持4个3.5寸硬盘和2个M.2 SSD 后置：最大支持4个3.5寸和4个2.5寸硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个第二代英特尔®至强®可扩展处理器：每个处理器多达 24 个核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerEdge C4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerEdge R740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMM 速度：高达 2933 MT/s
+内存类型：
+  RDIMM 8 GB、16 GB、32 GB
+  LRDIMM 64 GB、128 GB
+内存模块插槽：24 个 DIMM
+最大 RAM：
+  RDIMM 1.5 TB
+  LRDIMM 1.5 TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速器选项：
+多达三个300 W或六个150 W GPU或多达四个FPGA。
+Nvidia Tesla P100、K80、K40，Grid M60、M10、P4，Quadro P4000、NVIDIA V100或Intel Arria® 10GX FPGA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMM 速度：高达 2933 MT/s
+内存类型：RDIMM、LRDIMM、NVDIMM、
+DCPMM（英特尔®傲腾™ DC 持久内存）
+内存模块插槽：24 个 DDR4 DIMM 插槽（仅支持 12 个 NVDIMM 或 12 个 DCPMM）
+仅支持寄存式 ECC DDR4 DIMM
+最大 RAM：RDIMM 1.53 TB、LRDIMM 3 TB 、NVDIMM 192 GB、DCPMM 6.14 TB（7.68 TB 采用 LRDIMM）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R740 最高可配 16 个 2.5" 硬盘或 8 个 3.5" 硬盘
+Up to 16 x 2.5” SAS/SATA/SSD, max 122.88TB
+Up to 8 x 3.5” SAS/SATA, max 128TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PCIe
+2 个英特尔 10 GbE 适配器
+2 个英特尔 25 GbE 适配器 
+1 个英特尔 Omni-Path 单端口主机结构适配器 100 系列 LP PCIe 适配器
+1 个 Mellanox ConnectX-4 单端口 VPI QSFP28 1 个 EDR LP PCIe 适配器
+1 个 Mellanox ConnectX-4 双端口 VPI QSFP28 EDR LP PCIe 适配器
+后置插槽支持 2 个 NVMe/PCIE 固态硬盘 AIC，1.6/3.2/6.4 TB（受支持）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持4个GPU和卓越散热效率的加速器NVIDIA V100 16GB PCIe 和 NVLink GPU
+NVIDIA V100 32GB PCIe 和 NVLink GPU
+加速器:支持4个300W 和8个 150W GPUs
+NVIDIA Tesla P100, P40, K80M, M60, M10, AMD S7150, S7150X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24999起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R740-JLNB74002CN</t>
+    <t>机架式服务器
+高度：
+86.8 毫米 (3.4") 
+宽度：
+434.0 毫米 (17.08")
+深度：
+715.5 毫米 (28.2")
+重量：
+28.6 千克（63 磅）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架式服务器
+高：
+42.8 毫米 (1.7") 
+宽：
+434.0 毫米 (17.1")
+深：
+926.2 毫米 (36.5")
+重量：
+24.0 千克（52.9 磅）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+8个2.5寸U.2/SAS/SATA 2个板载M.2 PCIe &amp; SATA
+最大支持6 个 PCIe 3.0 x 16扩展槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持SATA/NVME硬盘，最大支持：8个 2.5 英寸SATA硬盘（可兼容最大支持4*NVMe 硬盘supports VROC）；内置 2*M.2
+支持5个25W low-profile PCIE card，其中4个x16，1个x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF5280M5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架式服务器
+448W*87.5H*899.5D (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架式服务器
+W（宽）448mm；H（高）351.6mm；D（深）850mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架式服务器
+高度 2U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴赛组装机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英特尔
+型号：
+i9-9900K
+核心数：
+八核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX2080TI 11G显卡*2张</t>
+  </si>
+  <si>
+    <t>250G固态+2TB机械</t>
+  </si>
+  <si>
+    <t>塔式服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64G内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询报价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.inspur.com/lcjtww/2315499/2315503/2378047/2378048/2378051/2423053/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.inspur.com/lcjtww/2315499/2315503/2378047/2378048/2378051/2380017/index.html</t>
+  </si>
+  <si>
+    <t>https://item.jd.com/45645594936.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.inspur.com/lcjtww/2315499/2315503/2378047/2378048/2378051/2380322/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dell.com/zh-cn/work/shop/povw/poweredge-r740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dell.com/zh-cn/work/shop/povw/poweredge-c4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +351,50 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,24 +413,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,60 +767,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599A139E-14C9-4768-AFBB-5F9E37506752}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2">
+        <v>27999</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{2C929B63-F346-4F2D-9888-23D649B273B3}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{7DF13E89-6154-48F6-B14B-B615A88AE97A}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{2E36EB5C-E85C-4DA1-A812-E3288B1E678F}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{E48BD6AA-651E-4099-B18C-5EA5C87B0E30}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{87CAE35C-E6D5-4FDE-9161-359007A6C550}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{2532181A-1598-4D74-94D4-8CE3ADEFC26C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>